--- a/alphabet-all images/AlphabetRecognizer-master/AlphabetRecognizer-master,src,res,trainingData,source/Original Size/PSNR.xlsx
+++ b/alphabet-all images/AlphabetRecognizer-master/AlphabetRecognizer-master,src,res,trainingData,source/Original Size/PSNR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\edgedetectionproposedmethod\AlphabetRecognizer-master\AlphabetRecognizer-master,src,res,trainingData,source\Original Size\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\Knowledge-Based-Edge-Detection\alphabet-all images\AlphabetRecognizer-master\AlphabetRecognizer-master,src,res,trainingData,source\Original Size\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8504CF-765C-4553-A166-1E6E3124BA72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0948CC21-0EEC-41E5-95DF-A6A5A7673D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="8">
   <si>
     <t>ref image</t>
   </si>
@@ -39,13 +39,7 @@
     <t>Sobel</t>
   </si>
   <si>
-    <t>approxcanny</t>
-  </si>
-  <si>
     <t>Canny</t>
-  </si>
-  <si>
-    <t>Log</t>
   </si>
   <si>
     <t>ref image = Binary image</t>
@@ -758,11 +752,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sayfa1!$A$9</c:f>
+              <c:f>Sayfa1!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>approxcanny</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -779,99 +773,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sayfa1!$B$9:$AE$9</c:f>
+              <c:f>Sayfa1!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.39029999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.4274</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.26640000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.30609999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3977</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.4632</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.28310000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4778</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5393</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.55779999999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.38319999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.37230000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.22439999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.50280000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.35249999999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.41010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.59189999999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.46250000000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.24859999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.30690000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.39429999999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.3377</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.31340000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.70609999999999995</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.40089999999999998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.57969999999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.2482</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.45379999999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.34660000000000002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -887,7 +794,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sayfa1!$A$10</c:f>
+              <c:f>Sayfa1!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -908,7 +815,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sayfa1!$B$10:$AE$10</c:f>
+              <c:f>Sayfa1!$B$9:$AE$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1016,11 +923,11 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sayfa1!$A$11</c:f>
+              <c:f>Sayfa1!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Log</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1039,99 +946,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sayfa1!$B$11:$AE$11</c:f>
+              <c:f>Sayfa1!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.17150000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18509999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.49640000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.11749999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13189999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16950000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.2873</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1009</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.25700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.34410000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.16650000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.20319999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.1299999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.26490000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.5500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.31690000000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.28589999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.8699999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.1017</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.1172</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.10979999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.1351</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.47270000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.1593</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.3044</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.1003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.24709999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8.5999999999999993E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1894,13 +1714,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2192,23 +2012,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE31"/>
+  <dimension ref="A1:AE29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -2219,7 +2039,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2230,9 +2050,9 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -2325,7 +2145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -2418,9 +2238,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="7">
         <v>0.63480000000000003</v>
@@ -2513,7 +2333,7 @@
         <v>0.58530000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -2608,7 +2428,7 @@
         <v>0.35110000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
@@ -2703,7 +2523,7 @@
         <v>0.30919999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -2798,292 +2618,128 @@
         <v>0.34129999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="8">
-        <v>0.39029999999999998</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0.4274</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0.73</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0.26640000000000003</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0.30609999999999998</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0.3977</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0.4632</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0.28310000000000002</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0.4778</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0.5393</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0.55779999999999996</v>
-      </c>
-      <c r="M9" s="8">
-        <v>0.38319999999999999</v>
-      </c>
-      <c r="N9" s="8">
-        <v>0.37230000000000002</v>
-      </c>
-      <c r="O9" s="8">
-        <v>0.22439999999999999</v>
-      </c>
-      <c r="P9" s="8">
-        <v>0.50280000000000002</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>0.35249999999999998</v>
-      </c>
-      <c r="R9" s="8">
-        <v>0.41010000000000002</v>
-      </c>
-      <c r="S9" s="8">
-        <v>0.59189999999999998</v>
-      </c>
-      <c r="T9" s="8">
-        <v>0.46250000000000002</v>
-      </c>
-      <c r="U9" s="8">
-        <v>0.24859999999999999</v>
-      </c>
-      <c r="V9" s="8">
-        <v>0.30690000000000001</v>
-      </c>
-      <c r="W9" s="8">
-        <v>0.39429999999999998</v>
-      </c>
-      <c r="X9" s="8">
-        <v>0.3377</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>0.31340000000000001</v>
-      </c>
-      <c r="Z9" s="8">
-        <v>0.70609999999999995</v>
-      </c>
-      <c r="AA9" s="8">
-        <v>0.40089999999999998</v>
-      </c>
-      <c r="AB9" s="8">
-        <v>0.57969999999999999</v>
-      </c>
-      <c r="AC9" s="8">
-        <v>0.2482</v>
-      </c>
-      <c r="AD9" s="8">
-        <v>0.45379999999999998</v>
-      </c>
-      <c r="AE9" s="8">
-        <v>0.34660000000000002</v>
+      <c r="B9" s="7">
+        <v>0.46179999999999999</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.50519999999999998</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.70640000000000003</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.31119999999999998</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.3609</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.47420000000000001</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.45669999999999999</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.36020000000000002</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.50019999999999998</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.58720000000000006</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.54530000000000001</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.4526</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0.3987</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0.2833</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0.56220000000000003</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0.46939999999999998</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0.53820000000000001</v>
+      </c>
+      <c r="S9" s="7">
+        <v>0.64959999999999996</v>
+      </c>
+      <c r="T9" s="7">
+        <v>0.45529999999999998</v>
+      </c>
+      <c r="U9" s="7">
+        <v>0.32550000000000001</v>
+      </c>
+      <c r="V9" s="7">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="W9" s="7">
+        <v>0.51319999999999999</v>
+      </c>
+      <c r="X9" s="7">
+        <v>0.44259999999999999</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>0.37180000000000002</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>0.4955</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>0.6431</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>0.30449999999999999</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>0.48670000000000002</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>0.4587</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="7">
-        <v>0.46179999999999999</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.50519999999999998</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.70640000000000003</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.31119999999999998</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0.3609</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0.47420000000000001</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0.45669999999999999</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0.36020000000000002</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0.50019999999999998</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0.58720000000000006</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0.54530000000000001</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0.4526</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0.3987</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0.2833</v>
-      </c>
-      <c r="P10" s="7">
-        <v>0.56220000000000003</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0.46939999999999998</v>
-      </c>
-      <c r="R10" s="7">
-        <v>0.53820000000000001</v>
-      </c>
-      <c r="S10" s="7">
-        <v>0.64959999999999996</v>
-      </c>
-      <c r="T10" s="7">
-        <v>0.45529999999999998</v>
-      </c>
-      <c r="U10" s="7">
-        <v>0.32550000000000001</v>
-      </c>
-      <c r="V10" s="7">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="W10" s="7">
-        <v>0.51319999999999999</v>
-      </c>
-      <c r="X10" s="7">
-        <v>0.44259999999999999</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>0.37180000000000002</v>
-      </c>
-      <c r="Z10" s="7">
-        <v>0.6875</v>
-      </c>
-      <c r="AA10" s="7">
-        <v>0.4955</v>
-      </c>
-      <c r="AB10" s="7">
-        <v>0.6431</v>
-      </c>
-      <c r="AC10" s="7">
-        <v>0.30449999999999999</v>
-      </c>
-      <c r="AD10" s="7">
-        <v>0.48670000000000002</v>
-      </c>
-      <c r="AE10" s="7">
-        <v>0.4587</v>
-      </c>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0.17150000000000001</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0.18509999999999999</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0.49640000000000001</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0.11749999999999999</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0.13189999999999999</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0.16950000000000001</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0.2873</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0.1009</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0.27</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0.34410000000000002</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0.16650000000000001</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0.20319999999999999</v>
-      </c>
-      <c r="O11" s="8">
-        <v>8.1299999999999997E-2</v>
-      </c>
-      <c r="P11" s="8">
-        <v>0.26490000000000002</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>9.5500000000000002E-2</v>
-      </c>
-      <c r="R11" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="S11" s="8">
-        <v>0.31690000000000002</v>
-      </c>
-      <c r="T11" s="8">
-        <v>0.28589999999999999</v>
-      </c>
-      <c r="U11" s="8">
-        <v>3.8699999999999998E-2</v>
-      </c>
-      <c r="V11" s="8">
-        <v>0.1017</v>
-      </c>
-      <c r="W11" s="8">
-        <v>0.1172</v>
-      </c>
-      <c r="X11" s="8">
-        <v>0.10979999999999999</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>0.1351</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>0.47270000000000001</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>0.1593</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>0.3044</v>
-      </c>
-      <c r="AC11" s="8">
-        <v>0.1003</v>
-      </c>
-      <c r="AD11" s="8">
-        <v>0.24709999999999999</v>
-      </c>
-      <c r="AE11" s="8">
-        <v>8.5999999999999993E-2</v>
-      </c>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -3096,7 +2752,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -3109,7 +2765,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -3122,7 +2778,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -3135,7 +2791,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -3148,7 +2804,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -3161,7 +2817,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -3174,7 +2830,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -3187,7 +2843,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -3200,7 +2856,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -3213,7 +2869,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
@@ -3226,7 +2882,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -3239,7 +2895,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -3252,7 +2908,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
@@ -3265,7 +2921,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
@@ -3278,7 +2934,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -3291,7 +2947,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
@@ -3304,7 +2960,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -3317,32 +2973,6 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>

--- a/alphabet-all images/AlphabetRecognizer-master/AlphabetRecognizer-master,src,res,trainingData,source/Original Size/PSNR.xlsx
+++ b/alphabet-all images/AlphabetRecognizer-master/AlphabetRecognizer-master,src,res,trainingData,source/Original Size/PSNR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\Knowledge-Based-Edge-Detection\alphabet-all images\AlphabetRecognizer-master\AlphabetRecognizer-master,src,res,trainingData,source\Original Size\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0948CC21-0EEC-41E5-95DF-A6A5A7673D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB29C16-7872-4996-ABF0-A7C94E514452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +86,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -178,14 +185,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -748,50 +755,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="5"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sayfa1!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sayfa1!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BDF5-4140-A795-338D3BB26729}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Sayfa1!$A$9</c:f>
@@ -915,50 +880,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-BDF5-4140-A795-338D3BB26729}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sayfa1!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sayfa1!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-BDF5-4140-A795-338D3BB26729}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2015,7 +1936,7 @@
   <dimension ref="A1:AE29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2242,94 +2163,94 @@
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>0.63480000000000003</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>0.70289999999999997</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>0.99439999999999995</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>0.43120000000000003</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>0.50129999999999997</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>0.65649999999999997</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>0.66510000000000002</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>0.48620000000000002</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>0.71560000000000001</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>0.78969999999999996</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <v>0.80169999999999997</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <v>0.62809999999999999</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="6">
         <v>0.56369999999999998</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="6">
         <v>0.38080000000000003</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="6">
         <v>0.77100000000000002</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="6">
         <v>0.60289999999999999</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="6">
         <v>0.68169999999999997</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="6">
         <v>0.9083</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="6">
         <v>0.66379999999999995</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="6">
         <v>0.43969999999999998</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V5" s="6">
         <v>0.49540000000000001</v>
       </c>
-      <c r="W5" s="7">
+      <c r="W5" s="6">
         <v>0.65049999999999997</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="6">
         <v>0.59550000000000003</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Y5" s="6">
         <v>0.51049999999999995</v>
       </c>
-      <c r="Z5" s="7">
+      <c r="Z5" s="6">
         <v>0.96850000000000003</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AA5" s="6">
         <v>0.67369999999999997</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AB5" s="6">
         <v>0.89439999999999997</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="AC5" s="6">
         <v>0.4118</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AD5" s="6">
         <v>0.6905</v>
       </c>
-      <c r="AE5" s="7">
+      <c r="AE5" s="6">
         <v>0.58530000000000004</v>
       </c>
     </row>
@@ -2337,99 +2258,99 @@
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>0.39100000000000001</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>0.42920000000000003</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>0.73019999999999996</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>0.26800000000000002</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>0.3075</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>0.39839999999999998</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>0.46229999999999999</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>0.28449999999999998</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>0.48010000000000003</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>0.54920000000000002</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <v>0.55710000000000004</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <v>0.38490000000000002</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <v>0.3735</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="6">
         <v>0.22459999999999999</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="6">
         <v>0.50700000000000001</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="6">
         <v>0.35809999999999997</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="6">
         <v>0.40820000000000001</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="6">
         <v>0.59650000000000003</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="6">
         <v>0.46089999999999998</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="6">
         <v>0.25640000000000002</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="6">
         <v>0.31900000000000001</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="6">
         <v>0.3962</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="6">
         <v>0.33900000000000002</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="Y6" s="6">
         <v>0.31380000000000002</v>
       </c>
-      <c r="Z6" s="7">
+      <c r="Z6" s="6">
         <v>0.70689999999999997</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AA6" s="6">
         <v>0.40279999999999999</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AB6" s="6">
         <v>0.58160000000000001</v>
       </c>
-      <c r="AC6" s="7">
+      <c r="AC6" s="6">
         <v>0.2485</v>
       </c>
-      <c r="AD6" s="7">
+      <c r="AD6" s="6">
         <v>0.45469999999999999</v>
       </c>
-      <c r="AE6" s="7">
+      <c r="AE6" s="6">
         <v>0.35110000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="8">
@@ -2527,94 +2448,94 @@
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>0.38729999999999998</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>0.42509999999999998</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>0.72650000000000003</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>0.26519999999999999</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>0.30420000000000003</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>0.39439999999999997</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>0.4607</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>0.28149999999999997</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>0.47670000000000001</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>0.53810000000000002</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <v>0.55469999999999997</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>0.38119999999999998</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <v>0.37059999999999998</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <v>0.2223</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="6">
         <v>0.50349999999999995</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="6">
         <v>0.3503</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="6">
         <v>0.40460000000000002</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="6">
         <v>0.59340000000000004</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="6">
         <v>0.45960000000000001</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="6">
         <v>0.2462</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V8" s="6">
         <v>0.30830000000000002</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8" s="6">
         <v>0.38979999999999998</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X8" s="6">
         <v>0.33529999999999999</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y8" s="6">
         <v>0.31040000000000001</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="Z8" s="6">
         <v>0.70299999999999996</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AA8" s="6">
         <v>0.39839999999999998</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AB8" s="6">
         <v>0.5786</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AC8" s="6">
         <v>0.24579999999999999</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AD8" s="6">
         <v>0.45140000000000002</v>
       </c>
-      <c r="AE8" s="7">
+      <c r="AE8" s="6">
         <v>0.34129999999999999</v>
       </c>
     </row>
@@ -2622,94 +2543,94 @@
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>0.46179999999999999</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>0.50519999999999998</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>0.70640000000000003</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>0.31119999999999998</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>0.3609</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>0.47420000000000001</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>0.45669999999999999</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>0.36020000000000002</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>0.50019999999999998</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <v>0.58720000000000006</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>0.54530000000000001</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <v>0.4526</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <v>0.3987</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="6">
         <v>0.2833</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="6">
         <v>0.56220000000000003</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="6">
         <v>0.46939999999999998</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="6">
         <v>0.53820000000000001</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="6">
         <v>0.64959999999999996</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="6">
         <v>0.45529999999999998</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="6">
         <v>0.32550000000000001</v>
       </c>
-      <c r="V9" s="7">
+      <c r="V9" s="6">
         <v>0.34100000000000003</v>
       </c>
-      <c r="W9" s="7">
+      <c r="W9" s="6">
         <v>0.51319999999999999</v>
       </c>
-      <c r="X9" s="7">
+      <c r="X9" s="6">
         <v>0.44259999999999999</v>
       </c>
-      <c r="Y9" s="7">
+      <c r="Y9" s="6">
         <v>0.37180000000000002</v>
       </c>
-      <c r="Z9" s="7">
+      <c r="Z9" s="6">
         <v>0.6875</v>
       </c>
-      <c r="AA9" s="7">
+      <c r="AA9" s="6">
         <v>0.4955</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AB9" s="6">
         <v>0.6431</v>
       </c>
-      <c r="AC9" s="7">
+      <c r="AC9" s="6">
         <v>0.30449999999999999</v>
       </c>
-      <c r="AD9" s="7">
+      <c r="AD9" s="6">
         <v>0.48670000000000002</v>
       </c>
-      <c r="AE9" s="7">
+      <c r="AE9" s="6">
         <v>0.4587</v>
       </c>
     </row>
